--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="894" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="894"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
     <sheet name="add_app" sheetId="1" r:id="rId2"/>
     <sheet name="search_user" sheetId="2" r:id="rId3"/>
     <sheet name="del_user" sheetId="3" r:id="rId4"/>
-    <sheet name="123" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -26,6 +25,63 @@
     <t>password</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>EXPECT</t>
+  </si>
+  <si>
+    <t>RELY_API</t>
+  </si>
+  <si>
+    <t>RELY_VALUE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8089/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>response_json["message"]</t>
+  </si>
+  <si>
+    <t>请求成功</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>账号密码错误</t>
+  </si>
+  <si>
+    <t>1qaz@WSX</t>
+  </si>
+  <si>
+    <t>账号或密码为空！</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -39,42 +95,6 @@
   </si>
   <si>
     <t>rely</t>
-  </si>
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>http://42.192.22.244:8089/login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>response_json["message"]</t>
-  </si>
-  <si>
-    <t>请求成功111</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>账号密码错误</t>
-  </si>
-  <si>
-    <t>1qaz@WSX</t>
-  </si>
-  <si>
-    <t>账号或密码为空！</t>
-  </si>
-  <si>
-    <t>libai</t>
-  </si>
-  <si>
-    <t>model</t>
   </si>
   <si>
     <t>{"appName":"测试接口添加","osType":"Web","appPackage_input_a":null,"appUrl":"test","elementTimeout":"30","pageTimeout":"30","appPackage":null}</t>
@@ -122,52 +142,98 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +248,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,37 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,22 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +484,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,81 +580,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,137 +604,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,17 +744,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,33 +1107,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="33.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="7.11111111111111" customWidth="1"/>
-    <col min="5" max="5" width="27.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="22.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="34.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="9.55555555555556" customWidth="1"/>
+    <col min="8" max="8" width="12.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="7.88888888888889" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="10.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1125,106 +1153,115 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
         <v>111111</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>111111</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>111111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
         <v>222222</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1232,7 +1269,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1243,11 +1280,11 @@
     <hyperlink ref="B2" r:id="rId1" display="111111"/>
     <hyperlink ref="B3" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
     <hyperlink ref="B5" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C5" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
     <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="C5" r:id="rId2" display="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1279,142 +1316,142 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1453,39 +1490,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1504,19 +1541,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1524,153 +1561,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="57.6" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>111111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="57.6" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>111111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="57.6" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>222222</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="57.6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="111111"/>
-    <hyperlink ref="B3" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="B5" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C5" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="894"/>
+    <workbookView windowWidth="29010" windowHeight="13350" tabRatio="894"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>username</t>
   </si>
@@ -52,31 +52,43 @@
     <t>PASSWORD</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8089/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>response_json["message"]</t>
+  </si>
+  <si>
+    <t>账号密码错误</t>
+  </si>
+  <si>
+    <t>mysql-SELECT * FROM  sys_user WHERE account="laoji"</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>http://42.192.22.244:8089/login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>response_json["message"]</t>
+    <t>1qaz@WSX</t>
+  </si>
+  <si>
+    <t>账号或密码为空！</t>
   </si>
   <si>
     <t>请求成功</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>账号密码错误</t>
-  </si>
-  <si>
-    <t>1qaz@WSX</t>
-  </si>
-  <si>
-    <t>账号或密码为空！</t>
+    <t>forward</t>
   </si>
   <si>
     <t>model</t>
@@ -126,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,22 +169,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,91 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +259,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,50 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,6 +510,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,12 +555,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,16 +616,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,116 +637,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,11 +765,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,28 +1125,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I8:I9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="34.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="9.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="12.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="7.88888888888889" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="10.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="7.89166666666667" customWidth="1"/>
+    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="10.225" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="17" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,110 +1180,114 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="19" customHeight="1" spans="1:6">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>111111</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>222222</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="5">
-        <v>111111</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
-        <v>222222</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
+    <row r="4" ht="16" customHeight="1" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>111111</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
@@ -1277,14 +1299,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="111111"/>
-    <hyperlink ref="B3" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="B5" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="B6" r:id="rId1" display="111111"/>
+    <hyperlink ref="B2" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
+    <hyperlink ref="B4" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login"/>
     <hyperlink ref="C3" r:id="rId2" display="http://42.192.22.244:8089/login"/>
     <hyperlink ref="C4" r:id="rId2" display="http://42.192.22.244:8089/login"/>
     <hyperlink ref="C5" r:id="rId2" display="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1300,158 +1322,158 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="38.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="50.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="38.775" customWidth="1"/>
+    <col min="2" max="2" width="50.225" customWidth="1"/>
     <col min="3" max="3" width="7.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="7.11111111111111" customWidth="1"/>
-    <col min="7" max="7" width="9.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="36.775" customWidth="1"/>
+    <col min="5" max="5" width="17.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.10833333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.225" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="8.44444444444444" customWidth="1"/>
+    <col min="10" max="10" width="8.44166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1478,51 +1500,51 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="53.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="43.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="53.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="43.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1544,16 +1566,16 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29010" windowHeight="13350" tabRatio="894"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>username</t>
   </si>
@@ -91,61 +91,126 @@
     <t>forward</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>cmd</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>rely</t>
-  </si>
-  <si>
-    <t>{"appName":"测试接口添加","osType":"Web","appPackage_input_a":null,"appUrl":"test","elementTimeout":"30","pageTimeout":"30","appPackage":null}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/AppAutoTest/logoutAction.do</t>
-  </si>
-  <si>
-    <t>response_json["return_message"]</t>
-  </si>
-  <si>
-    <t>应用添加成功</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>{'appId':'228'}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/AppAutoTest/menuAction.do</t>
-  </si>
-  <si>
-    <t>search</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>rePassword</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>deptId</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>INITIALIZE</t>
+  </si>
+  <si>
+    <t>RESTORE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>laoji</t>
+  </si>
+  <si>
+    <t>laoji@163.com</t>
+  </si>
+  <si>
+    <t>开发部</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8089/mgr/add</t>
+  </si>
+  <si>
+    <t>mysql-DELETE FROM sys_user WHERE account="laoji"</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>请求接口不存在或用户未登录</t>
+  </si>
+  <si>
+    <t>deptId:must not be null</t>
+  </si>
+  <si>
+    <t>password:must not be blank</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8089/mgr/list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>add_app</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>http://42.192.22.244:8089/mgr/delete</t>
+  </si>
+  <si>
+    <t>response_json["success"]</t>
+  </si>
+  <si>
+    <t>ture</t>
+  </si>
+  <si>
+    <t>search_user</t>
+  </si>
+  <si>
+    <t>response_json["data"]-account=laoji-userId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -157,6 +222,19 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,9 +253,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,95 +368,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,19 +383,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,91 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,21 +603,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +624,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,26 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +665,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,139 +700,187 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,22 +888,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1127,27 +1256,27 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="7.89166666666667" customWidth="1"/>
-    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="32.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="10.225" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1159,10 +1288,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1188,101 +1317,81 @@
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="19">
         <v>111111</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="21">
         <v>222222</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="22"/>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="22"/>
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="19">
         <v>111111</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="22"/>
+      <c r="E6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L6" t="s">
@@ -1290,23 +1399,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="111111"/>
     <hyperlink ref="B2" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
     <hyperlink ref="B4" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://42.192.22.244:8089/login" tooltip="http://42.192.22.244:8089/login"/>
     <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://42.192.22.244:8089/login"/>
-    <hyperlink ref="C5" r:id="rId2" display="http://42.192.22.244:8089/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1316,175 +1421,810 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.775" customWidth="1"/>
-    <col min="2" max="2" width="50.225" customWidth="1"/>
-    <col min="3" max="3" width="7.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.775" customWidth="1"/>
-    <col min="5" max="5" width="17.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.10833333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.225" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="8.44166666666667" customWidth="1"/>
+    <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
+    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="7.77777777777778" customWidth="1"/>
+    <col min="12" max="12" width="8.11111111111111" customWidth="1"/>
+    <col min="13" max="13" width="7.44444444444444" customWidth="1"/>
+    <col min="14" max="14" width="7.11111111111111" customWidth="1"/>
+    <col min="16" max="16" width="10.3333333333333" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="19" max="19" width="10.4444444444444" customWidth="1"/>
+    <col min="20" max="20" width="9.33333333333333" customWidth="1"/>
+    <col min="21" max="21" width="9.55555555555556" customWidth="1"/>
+    <col min="22" max="22" width="14.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
+    <col min="28" max="28" width="27.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:31">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" ht="82" customHeight="1" spans="1:31">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6">
+        <v>111111</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>13311112222</v>
+      </c>
+      <c r="E2" s="6">
+        <v>111111</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6">
+        <v>25</v>
+      </c>
+      <c r="J2" s="15">
+        <v>44153</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="6">
+        <v>111111</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" ht="77" customHeight="1" spans="1:31">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6">
+        <v>111111</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13311112222</v>
+      </c>
+      <c r="E3" s="6">
+        <v>111111</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6">
+        <v>25</v>
+      </c>
+      <c r="J3" s="15">
+        <v>44153</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" ht="72" spans="1:31">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6">
+        <v>111111</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13311112222</v>
+      </c>
+      <c r="E4" s="6">
+        <v>111111</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="15">
+        <v>44153</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6">
+        <v>111111</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" ht="72" spans="1:31">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6">
+        <v>111111</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13311112222</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="6">
+        <v>25</v>
+      </c>
+      <c r="J5" s="15">
+        <v>44153</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="6">
+        <v>111111</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-    <hyperlink ref="B4" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-    <hyperlink ref="B5" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-    <hyperlink ref="B6" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-    <hyperlink ref="B7" r:id="rId1" display="http://localhost:8080/AppAutoTest/logoutAction.do" tooltip="http://localhost:8080/AppAutoTest/logoutAction.do"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1494,63 +2234,553 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="53.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="43.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="6.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="10.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:14">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:14">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/AppAutoTest/menuAction.do"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1560,23 +2790,641 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="10.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
+    <row r="1" ht="31.2" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:18">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>username</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>response_json["msg"]</t>
   </si>
   <si>
     <t>add_app</t>
@@ -195,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,16 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +280,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -284,21 +309,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,55 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,25 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,67 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,17 +586,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,37 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +659,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,137 +703,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,9 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -891,17 +891,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1257,14 +1257,14 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="32.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="42.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
     <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
@@ -1276,7 +1276,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1288,10 +1288,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1317,81 +1317,81 @@
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:9">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>111111</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>222222</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="20"/>
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="20"/>
+      <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:12">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>111111</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="20"/>
+      <c r="E6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L6" t="s">
@@ -1399,19 +1399,18 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="111111"/>
     <hyperlink ref="B2" r:id="rId1" display="111111" tooltip="mailto:1qaz@WSX"/>
     <hyperlink ref="B4" r:id="rId1" display="1qaz@WSX" tooltip="mailto:1qaz@WSX"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://42.192.22.244:8089/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1426,7 +1425,7 @@
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1456,121 +1455,121 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:31">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" ht="82" customHeight="1" spans="1:31">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>111111</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>13311112222</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>111111</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>25</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>44153</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1579,650 +1578,638 @@
       <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="3">
         <v>111111</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
     </row>
     <row r="3" ht="77" customHeight="1" spans="1:31">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>111111</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>13311112222</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>111111</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>25</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>44153</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
+      <c r="W3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
     </row>
     <row r="4" ht="72" spans="1:31">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>111111</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>13311112222</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>111111</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>44153</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <v>111111</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
     <row r="5" ht="72" spans="1:31">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>111111</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>13311112222</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>25</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>44153</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>111111</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2236,8 +2223,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2257,46 +2244,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2304,7 +2291,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2314,18 +2301,22 @@
         <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>111111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="3"/>
@@ -2792,8 +2783,8 @@
   <sheetPr/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2808,12 +2799,13 @@
     <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="10.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" spans="1:13">
+    <row r="1" ht="15.6" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2855,26 +2847,30 @@
     <row r="2" ht="30" customHeight="1" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3">
+        <v>111111</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="3"/>

--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -2784,7 +2784,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/apiData/autotest-api.xlsx
+++ b/apiData/autotest-api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="3"/>
+    <workbookView windowWidth="29010" windowHeight="13350" tabRatio="468" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t>http://42.192.22.244:8089/mgr/delete</t>
-  </si>
-  <si>
-    <t>response_json["success"]</t>
-  </si>
-  <si>
-    <t>ture</t>
   </si>
   <si>
     <t>search_user</t>
@@ -199,10 +193,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -256,9 +250,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,16 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,43 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -347,10 +341,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,15 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,31 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +422,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,55 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +600,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,21 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,6 +643,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -691,145 +685,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,18 +1254,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
     <col min="3" max="3" width="42.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="7.89166666666667" customWidth="1"/>
+    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="12.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="10.225" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,30 +1422,30 @@
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
-    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="6.55833333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.89166666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="7.77777777777778" customWidth="1"/>
-    <col min="12" max="12" width="8.11111111111111" customWidth="1"/>
-    <col min="13" max="13" width="7.44444444444444" customWidth="1"/>
-    <col min="14" max="14" width="7.11111111111111" customWidth="1"/>
+    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.8916666666667" customWidth="1"/>
+    <col min="11" max="11" width="7.775" customWidth="1"/>
+    <col min="12" max="12" width="8.10833333333333" customWidth="1"/>
+    <col min="13" max="13" width="7.44166666666667" customWidth="1"/>
+    <col min="14" max="14" width="7.10833333333333" customWidth="1"/>
     <col min="16" max="16" width="10.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="19" max="19" width="10.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="10.4416666666667" customWidth="1"/>
     <col min="20" max="20" width="9.33333333333333" customWidth="1"/>
-    <col min="21" max="21" width="9.55555555555556" customWidth="1"/>
+    <col min="21" max="21" width="9.55833333333333" customWidth="1"/>
     <col min="22" max="22" width="14.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
-    <col min="28" max="28" width="27.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="10.5583333333333" customWidth="1"/>
+    <col min="28" max="28" width="27.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:31">
@@ -1662,7 +1656,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" ht="72" spans="1:31">
+    <row r="4" ht="67.5" spans="1:31">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1720,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" ht="72" spans="1:31">
+    <row r="5" ht="67.5" spans="1:31">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2227,20 +2221,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="6.89166666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="10.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.1083333333333" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
+    <col min="14" max="14" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:14">
@@ -2784,26 +2778,26 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
+    <col min="1" max="1" width="7.44166666666667" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="7.775" customWidth="1"/>
+    <col min="4" max="4" width="25.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="12.775" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="10.225" customWidth="1"/>
     <col min="9" max="9" width="10.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
+    <col min="10" max="10" width="7.89166666666667" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:13">
+    <row r="1" ht="14.25" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2844,8 +2838,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:18">
-      <c r="A2" s="3"/>
+    <row r="2" ht="50" customHeight="1" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -2853,16 +2849,16 @@
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>19</v>
